--- a/userjourney.xlsx
+++ b/userjourney.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricod\Documents\ma\bewijzenmap\periode3\proj\The Wall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{C5AEDBB6-D51F-46B5-86DD-F6FFF87B73D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698433CC-8046-4723-B023-310067700018}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{7D0A7600-D033-4DDA-9CBA-4214CDB15A07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7D0A7600-D033-4DDA-9CBA-4214CDB15A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>als</t>
   </si>
@@ -144,6 +144,77 @@
   </si>
   <si>
     <t>The Wall kan vullen</t>
+  </si>
+  <si>
+    <t>Login Pagina</t>
+  </si>
+  <si>
+    <t>Registreren</t>
+  </si>
+  <si>
+    <t>Later kan inloggen en de website kan gebruiken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ust</t>
+    </r>
+  </si>
+  <si>
+    <t>The Wall</t>
+  </si>
+  <si>
+    <t>Eigen Profiel</t>
+  </si>
+  <si>
+    <t>Contact Pagina</t>
+  </si>
+  <si>
+    <t>Zien wat de email van de developers zijn</t>
+  </si>
+  <si>
+    <t>Ze kan contacteren voor klachten/tips en tops</t>
+  </si>
+  <si>
+    <t>Zien wat de telefoonnummers van de developers zijn</t>
+  </si>
+  <si>
+    <t>Ze kan bellen voor vragen</t>
+  </si>
+  <si>
+    <t>Zien wat de instagram links van de developers zijn</t>
+  </si>
+  <si>
+    <t>Hun producten kan bekijken</t>
+  </si>
+  <si>
+    <t>Op de link van de portfolio site van de developers klikken</t>
+  </si>
+  <si>
+    <t>Hun projecten kan bekijken</t>
+  </si>
+  <si>
+    <t>Op categoriën kan klikken die ik zelf heb ingesteld</t>
+  </si>
+  <si>
+    <t>Makkelijker bepaalde producten kan opzoeken</t>
   </si>
 </sst>
 </file>
@@ -504,142 +575,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BC028F-1589-41DF-9CFB-7917652C7BA1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
